--- a/Learning path for AZ-104.xlsx
+++ b/Learning path for AZ-104.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -348,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,10 +753,10 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.7109375" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="41.7109375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
     <col min="2" max="3" width="41.7109375" style="1"/>
@@ -764,7 +764,7 @@
     <col min="5" max="16384" width="41.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -778,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1">
+    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1">
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1">
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1">
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -820,13 +820,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1">
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -838,7 +838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1">
+    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
@@ -848,7 +848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1">
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
@@ -858,7 +858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1">
+    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
@@ -868,7 +868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1">
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
@@ -878,7 +878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1">
+    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
@@ -888,7 +888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24" customHeight="1">
+    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
@@ -898,7 +898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1">
+    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
@@ -908,13 +908,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1">
+    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1">
+    <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>30</v>
@@ -926,7 +926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1">
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
@@ -936,7 +936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1">
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
@@ -946,7 +946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1">
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
@@ -956,7 +956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1">
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
@@ -966,7 +966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1">
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
@@ -976,7 +976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1">
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
@@ -986,13 +986,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1">
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="24" customHeight="1">
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>45</v>
@@ -1004,7 +1004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1">
+    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
@@ -1014,7 +1014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24" customHeight="1">
+    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
@@ -1024,7 +1024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="24" customHeight="1">
+    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
@@ -1034,7 +1034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="24" customHeight="1">
+    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3" t="s">
@@ -1044,7 +1044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="24" customHeight="1">
+    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3" t="s">
@@ -1054,7 +1054,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="24" customHeight="1">
+    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
@@ -1064,7 +1064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="24" customHeight="1">
+    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
@@ -1074,13 +1074,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1">
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="24" customHeight="1">
+    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>62</v>
@@ -1092,7 +1092,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="24" customHeight="1">
+    <row r="34" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3" t="s">
@@ -1102,7 +1102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24" customHeight="1">
+    <row r="35" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
@@ -1112,7 +1112,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="24" customHeight="1">
+    <row r="36" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
@@ -1122,7 +1122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="24" customHeight="1">
+    <row r="37" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3" t="s">
@@ -1132,7 +1132,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="24" customHeight="1">
+    <row r="38" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
@@ -1142,7 +1142,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="24" customHeight="1">
+    <row r="39" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
@@ -1152,7 +1152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24" customHeight="1">
+    <row r="40" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
@@ -1162,7 +1162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24" customHeight="1">
+    <row r="41" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
@@ -1172,7 +1172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="24" customHeight="1">
+    <row r="42" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3" t="s">
@@ -1182,7 +1182,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="24" customHeight="1">
+    <row r="43" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
@@ -1192,13 +1192,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="24" customHeight="1">
+    <row r="44" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="24" customHeight="1">
+    <row r="45" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
         <v>85</v>
@@ -1210,7 +1210,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="24" customHeight="1">
+    <row r="46" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
@@ -1220,7 +1220,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24" customHeight="1">
+    <row r="47" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3" t="s">
@@ -1230,7 +1230,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="24" customHeight="1">
+    <row r="48" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3" t="s">
@@ -1240,7 +1240,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="24" customHeight="1">
+    <row r="49" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
@@ -1250,7 +1250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1">
+    <row r="50" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3" t="s">
@@ -1260,7 +1260,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="24" customHeight="1">
+    <row r="51" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
@@ -1270,7 +1270,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="24" customHeight="1">
+    <row r="52" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3" t="s">
